--- a/Học tiếng anh.xlsx
+++ b/Học tiếng anh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="762">
   <si>
     <t>(adj)</t>
   </si>
@@ -1902,18 +1902,9 @@
     <t>business</t>
   </si>
   <si>
-    <t>bít nịt s</t>
-  </si>
-  <si>
     <t>Thương mại,  kinh doanh, buôn bán</t>
   </si>
   <si>
-    <t>finace</t>
-  </si>
-  <si>
-    <t>fi nịt s</t>
-  </si>
-  <si>
     <t>Tài chính</t>
   </si>
   <si>
@@ -1926,24 +1917,15 @@
     <t>s pơ si phịch</t>
   </si>
   <si>
-    <t>cụ thể</t>
-  </si>
-  <si>
     <t>term</t>
   </si>
   <si>
-    <t>thơm</t>
-  </si>
-  <si>
     <t>Thuật  ngữ</t>
   </si>
   <si>
     <t>corporate</t>
   </si>
   <si>
-    <t>Kô pờ rệt</t>
-  </si>
-  <si>
     <t>Thuộc tập đoàn, thuộc đoàn thể</t>
   </si>
   <si>
@@ -2043,9 +2025,6 @@
     <t>wrarranty</t>
   </si>
   <si>
-    <t>wua rừn tì</t>
-  </si>
-  <si>
     <t>Sự bảo hành</t>
   </si>
   <si>
@@ -2082,7 +2061,250 @@
     <t>lây bờ</t>
   </si>
   <si>
-    <t>Lao động</t>
+    <t>bi zi` nịts</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>fai nèn s</t>
+  </si>
+  <si>
+    <t>cụ thể, riêng</t>
+  </si>
+  <si>
+    <t>thơmr cong lưỡi</t>
+  </si>
+  <si>
+    <t>Kôr pờ rệt</t>
+  </si>
+  <si>
+    <t>we rừn ti</t>
+  </si>
+  <si>
+    <t>Lao động, công nhân</t>
+  </si>
+  <si>
+    <t>franchises</t>
+  </si>
+  <si>
+    <t>nhượng quyền thương mại</t>
+  </si>
+  <si>
+    <t>fden chai zừ</t>
+  </si>
+  <si>
+    <t>consultancy</t>
+  </si>
+  <si>
+    <t>kơn sol từn sì</t>
+  </si>
+  <si>
+    <t>tư vấn</t>
+  </si>
+  <si>
+    <t>by out</t>
+  </si>
+  <si>
+    <t>by ao t</t>
+  </si>
+  <si>
+    <t>thôn tính toàn bộ doanh nghiệp</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>thê k âu vờ</t>
+  </si>
+  <si>
+    <t>thôn tính 1 phần lớn doanh nghiệp</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>ref phơ rừn s</t>
+  </si>
+  <si>
+    <t>sự tham chiếu</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>pơ fét sừn</t>
+  </si>
+  <si>
+    <t>nghề nghiệp</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loi ờ r </t>
+  </si>
+  <si>
+    <t>luật sư</t>
+  </si>
+  <si>
+    <t>solicitor</t>
+  </si>
+  <si>
+    <t>sâu líc sì đờ</t>
+  </si>
+  <si>
+    <t>Luật sự đại diện</t>
+  </si>
+  <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>kan f ù</t>
+  </si>
+  <si>
+    <t>cố vấn</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>kom mừn</t>
+  </si>
+  <si>
+    <t>chung, phổ thông, công cộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nouns </t>
+  </si>
+  <si>
+    <t>nao s</t>
+  </si>
+  <si>
+    <t>danh từ</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>sắp si đi ơ rì</t>
+  </si>
+  <si>
+    <t>chi nhánh, công ty con</t>
+  </si>
+  <si>
+    <t>headquarters</t>
+  </si>
+  <si>
+    <t>hed k ôr đờ z</t>
+  </si>
+  <si>
+    <t>trụ sở chính</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chi f </t>
+  </si>
+  <si>
+    <t>trưởng, trưởng phòng</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>ịch zếch kì đựp</t>
+  </si>
+  <si>
+    <t>điều hành</t>
+  </si>
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>óp f ịt sờ</t>
+  </si>
+  <si>
+    <t>nhân viên văn phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Excutive Officer </t>
+  </si>
+  <si>
+    <t>chif ịch zếch kì đựp óp fịt sờ</t>
+  </si>
+  <si>
+    <t>giám đốc tài chính</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>cher mừn</t>
+  </si>
+  <si>
+    <t>chủ tịch</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bôr d  </t>
+  </si>
+  <si>
+    <t>cái bảng</t>
+  </si>
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>đạo diễn, ban giám đốc</t>
+  </si>
+  <si>
+    <t>đơ rếch tờs</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>miu chồ ồ</t>
+  </si>
+  <si>
+    <t>qua lại, lẫn nhau</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>phăn d</t>
+  </si>
+  <si>
+    <t>quỹ</t>
+  </si>
+  <si>
+    <t>mutual funds</t>
+  </si>
+  <si>
+    <t>quỹ hỗi trợ</t>
+  </si>
+  <si>
+    <t>bonds</t>
+  </si>
+  <si>
+    <t>bon đờ</t>
+  </si>
+  <si>
+    <t>trái phiếu</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>sto k</t>
+  </si>
+  <si>
+    <t>cổ phần</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q247"/>
+  <dimension ref="A1:S272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5401,7 +5623,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C225" s="2" t="s">
         <v>618</v>
       </c>
@@ -5412,7 +5634,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C226" s="2" t="s">
         <v>621</v>
       </c>
@@ -5423,7 +5645,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="227" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="18" t="s">
         <v>625</v>
       </c>
@@ -5431,7 +5653,7 @@
       <c r="I227" s="20"/>
       <c r="K227" s="21"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C228" s="2" t="s">
         <v>626</v>
       </c>
@@ -5439,273 +5661,578 @@
         <v>509</v>
       </c>
       <c r="G228" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="I228" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C229" s="2" t="s">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G229" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C230" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I229" s="4" t="s">
+      <c r="G230" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C230" s="2" t="s">
+      <c r="I230" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C231" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C231" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G231" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C232" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C233" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G233" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I231" s="4" t="s">
+      <c r="I233" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C232" s="2" t="s">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C234" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C233" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="I233" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C234" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>491</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C235" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>491</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C236" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>511</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C237" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C238" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C239" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C240" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>491</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
+      </c>
+      <c r="S240" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C241" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C242" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C243" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C244" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C245" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C246" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C247" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C248" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="249" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C249" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C250" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="251" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C251" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="252" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C252" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="253" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C253" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="254" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C254" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="255" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C255" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C256" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="257" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C257" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C258" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C259" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C260" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="261" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C261" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="262" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C262" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="263" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C263" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="264" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C264" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="265" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C265" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="266" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C266" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="267" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C267" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="268" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C268" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="269" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C269" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="270" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C270" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="271" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C271" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="272" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C272" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
